--- a/Archivos/FORMATOS/31.xlsx
+++ b/Archivos/FORMATOS/31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\FORMATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436BD8F-D048-4A05-A371-07C93E4795E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA26E77-4975-40E3-A58D-A8D92E929EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A794D74-3375-41D3-9193-B22F183FDDB6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7" xr2:uid="{4A794D74-3375-41D3-9193-B22F183FDDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="33" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <pivotCache cacheId="27" r:id="rId59"/>
     <pivotCache cacheId="28" r:id="rId60"/>
     <pivotCache cacheId="29" r:id="rId61"/>
-    <pivotCache cacheId="33" r:id="rId62"/>
+    <pivotCache cacheId="30" r:id="rId62"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="18">
   <si>
     <t>Grand Total</t>
   </si>
@@ -278,241 +278,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="477">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF1B4D7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="435">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -6761,8 +6527,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7D552C5-CA7D-4379-8F33-CBAD94D0444E}" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:P4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7D552C5-CA7D-4379-8F33-CBAD94D0444E}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -6772,7 +6538,7 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0" measureFilter="1">
+    <pivotField axis="axisCol" showAll="0">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
@@ -6802,7 +6568,10 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="1">
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -6811,51 +6580,51 @@
     <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="476">
+    <format dxfId="434">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="475">
+    <format dxfId="433">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="474">
+    <format dxfId="432">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="473">
+    <format dxfId="431">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="472">
+    <format dxfId="430">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="471">
+    <format dxfId="429">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="470">
+    <format dxfId="428">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="469">
+    <format dxfId="427">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="468">
+    <format dxfId="426">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="467">
+    <format dxfId="425">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="466">
+    <format dxfId="424">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="465">
+    <format dxfId="423">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="464">
+    <format dxfId="422">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6864,22 +6633,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="463">
+    <format dxfId="421">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="valueGreaterThan" evalOrder="-1" id="5" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThan" val="0"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6893,6 +6651,3334 @@
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3002FA7A-8C00-42B0-A00C-87C8314A801C}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="308">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="307">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="306">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="305">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="304">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="303">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="302">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="301">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="300">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="299">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="298">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="297">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="296">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="295">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8694E6BB-9C2F-4082-B87A-2A50AD149305}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="294">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="293">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="292">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="291">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="290">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="289">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="288">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="287">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="286">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="285">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="284">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="283">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="282">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="281">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B2F7499-E37A-48C7-80D1-52CAEC09C34F}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="280">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="279">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="278">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="277">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="276">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="275">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="274">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="273">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="272">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="271">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="270">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="269">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="268">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="267">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E02BE39C-442B-4988-A16A-BA4FE8F38F17}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="266">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="265">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="264">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="263">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="262">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="261">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="260">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="259">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="258">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="257">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="256">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="255">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="254">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="253">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A2243D4-3A28-4AF7-BEB9-329099D72BF6}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="252">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="251">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="250">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="249">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="248">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="247">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="246">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="245">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="244">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="243">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="242">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="241">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="240">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="239">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6DE3101-E7C8-482B-8164-298DCFF0B769}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="238">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="237">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="236">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="235">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="234">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="233">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="232">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="231">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="230">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="229">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="228">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="227">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="226">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="225">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6A73C1B-DDEF-4C40-99A0-F51D182AFF2D}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="224">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="223">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="222">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="221">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="220">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="219">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="218">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="217">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="216">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="215">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="214">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="213">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="212">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="211">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5E790AC-B382-4CA5-BBFC-ECEB33AF25E1}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="210">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="209">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="208">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="207">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="206">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="205">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="204">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="203">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="202">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="201">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="200">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="199">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="198">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="197">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EC91520-AE65-4EE7-BE80-B7D35E70370F}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="196">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="195">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="194">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="193">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="192">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="191">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="190">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="189">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="188">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="187">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="186">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="185">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="184">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="183">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B86B8516-35BC-41F8-9F6E-DF5F4EDC8EAA}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="182">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="181">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="180">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="179">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="178">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="177">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="176">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="175">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="174">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="173">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="172">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="171">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="170">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="169">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2728F00-2985-49E3-A1A1-346C644B7F6E}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="420">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="419">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="418">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="417">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="416">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="415">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="414">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="413">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="412">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="411">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="410">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="409">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="408">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="407">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAB96776-6098-4080-991F-3D8300E528EC}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="168">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="167">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="166">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="165">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="164">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="163">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="162">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="161">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="160">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="159">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="158">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="157">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="156">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="155">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB11CE9D-41DB-403B-B1E2-066F45DB1EEA}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="154">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="153">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="152">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="151">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="150">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="149">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="148">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="147">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="146">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="145">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="144">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="143">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="142">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="141">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92D09522-DB1D-4101-97B6-E10F5A76B235}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="140">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="139">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="138">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="137">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="136">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="135">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="134">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="133">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="132">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="131">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="130">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="129">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="128">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="127">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F371332-69D4-4150-A08A-A07C85888B8A}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="126">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="125">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="124">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="123">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="122">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="121">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="120">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="119">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="117">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="116">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="115">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="114">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="113">
+      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{587215A3-B3E5-45CA-96F5-3FCEE48C0DC6}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="112">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="111">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="110">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="109">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="108">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="107">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="106">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="105">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="103">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="101">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="100">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="99">
+      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C76201FE-8961-435D-AA47-3D1EA25EB4DF}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="98">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="97">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="96">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="95">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="94">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="93">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="92">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="91">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="90">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="89">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="87">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="86">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A405E93-F432-4E63-B9AD-B61DE809CF3B}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="84">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="83">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="82">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="81">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63B1A4FC-4866-4F44-B423-206BD7473C18}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="70">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1771569B-F345-4A4C-9173-8DA96DE46978}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="56">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57B78ADD-89C0-4464-9921-F4161BE891C5}" name="PivotTable2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="42">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D92DBD8-B702-4B67-898D-1FB82F21C572}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="406">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="405">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="404">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="403">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="402">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="401">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="400">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="399">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="398">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="397">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="396">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="395">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="394">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="393">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69E90AA3-4125-49FB-93FD-5CEA3B931613}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="28">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FC33848-84E5-43CF-9798-83A378B83D13}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="15">
+    <format dxfId="14">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{444A1DD8-D007-4B7B-98DD-4896F8EABF20}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="392">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="391">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="390">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="389">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="388">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="387">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="386">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="385">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="384">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="383">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="382">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="381">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="380">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="379">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B41FD417-6CEC-4BCD-969C-0DD89C9604FC}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="378">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="377">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="376">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="375">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="374">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="373">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="372">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="371">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="370">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="369">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="368">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="367">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="366">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="365">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F3809D4-711B-455F-AB34-F5C694770AB4}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="364">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="363">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="362">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="361">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="360">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="359">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="358">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="357">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="356">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="355">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="354">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="353">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="352">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="351">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD18B520-28BB-4C3E-A2CC-C7F48841F42B}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7014,8 +10100,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8694E6BB-9C2F-4082-B87A-2A50AD149305}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10A4BC46-10EA-4048-8413-C2C90D408683}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7137,8 +10223,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B2F7499-E37A-48C7-80D1-52CAEC09C34F}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A8AACA7-2B1D-4D98-9804-DD73BAD1A356}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7245,3334 +10331,6 @@
       </pivotArea>
     </format>
     <format dxfId="309">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E02BE39C-442B-4988-A16A-BA4FE8F38F17}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="308">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="307">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="306">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="305">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="304">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="303">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="302">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="301">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="300">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="299">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="298">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="297">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="296">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="295">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A2243D4-3A28-4AF7-BEB9-329099D72BF6}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="294">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="293">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="292">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="291">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="290">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="289">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="288">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="287">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="286">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="285">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="284">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="283">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="282">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="281">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6DE3101-E7C8-482B-8164-298DCFF0B769}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="280">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="279">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="278">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="277">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="276">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="275">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="274">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="273">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="272">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="271">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="270">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="269">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="268">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="267">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6A73C1B-DDEF-4C40-99A0-F51D182AFF2D}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="266">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="265">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="264">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="263">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="262">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="261">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="260">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="259">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="258">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="257">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="256">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="255">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="254">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="253">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5E790AC-B382-4CA5-BBFC-ECEB33AF25E1}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="252">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="251">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="250">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="249">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="248">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="247">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="246">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="245">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="244">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="243">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="242">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="241">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="240">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="239">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EC91520-AE65-4EE7-BE80-B7D35E70370F}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="238">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="237">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="236">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="235">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="234">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="233">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="232">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="231">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="230">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="229">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="228">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="227">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="226">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="225">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B86B8516-35BC-41F8-9F6E-DF5F4EDC8EAA}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="224">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="223">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="222">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="221">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="220">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="219">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="218">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="217">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="216">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="215">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="214">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="213">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="212">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="211">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2728F00-2985-49E3-A1A1-346C644B7F6E}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="462">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="461">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="460">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="459">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="458">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="457">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="456">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="455">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="454">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="453">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="452">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="451">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="450">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="449">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAB96776-6098-4080-991F-3D8300E528EC}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="210">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="209">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="208">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="207">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="206">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="205">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="204">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="203">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="202">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="201">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="200">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="199">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="198">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="197">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB11CE9D-41DB-403B-B1E2-066F45DB1EEA}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="196">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="195">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="194">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="193">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="192">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="191">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="190">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="189">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="188">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="187">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="186">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="185">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="184">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="183">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92D09522-DB1D-4101-97B6-E10F5A76B235}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="182">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="181">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="180">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="179">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="178">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="177">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="176">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="175">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="174">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="173">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="172">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="171">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="170">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="169">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F371332-69D4-4150-A08A-A07C85888B8A}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="168">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="167">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="166">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="165">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="164">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="163">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="162">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="161">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="160">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="159">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="158">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="157">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="156">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="155">
-      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{587215A3-B3E5-45CA-96F5-3FCEE48C0DC6}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="154">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="153">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="152">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="151">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="150">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="149">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="148">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="147">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="146">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="145">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="144">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="143">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="142">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="141">
-      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C76201FE-8961-435D-AA47-3D1EA25EB4DF}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="140">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="139">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="138">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="137">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="136">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="135">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="134">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="133">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="132">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="131">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="130">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="129">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="128">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="127">
-      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A405E93-F432-4E63-B9AD-B61DE809CF3B}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="126">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="125">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="124">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="123">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="121">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="120">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="119">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="118">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="117">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="116">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="115">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="114">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63B1A4FC-4866-4F44-B423-206BD7473C18}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="112">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="111">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="110">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="107">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="106">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="105">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="104">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="103">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="102">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="101">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="100">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="99">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1771569B-F345-4A4C-9173-8DA96DE46978}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="98">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="97">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="96">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="95">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="94">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="93">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="92">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="91">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="90">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="89">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="88">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="87">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="86">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="85">
-      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57B78ADD-89C0-4464-9921-F4161BE891C5}" name="PivotTable2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="84">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="83">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="82">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="81">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="80">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="79">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="78">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="77">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="76">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="75">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="74">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="73">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="72">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="71">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D92DBD8-B702-4B67-898D-1FB82F21C572}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="448">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="447">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="446">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="445">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="444">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="443">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="442">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="441">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="440">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="439">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="438">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="437">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="436">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="435">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69E90AA3-4125-49FB-93FD-5CEA3B931613}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="70">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="69">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="68">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="66">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="61">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="59">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FC33848-84E5-43CF-9798-83A378B83D13}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="15">
-    <format dxfId="56">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
-      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{444A1DD8-D007-4B7B-98DD-4896F8EABF20}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="434">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="433">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="432">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="431">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="430">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="429">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="428">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="427">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="426">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="425">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="424">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="423">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="422">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="421">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B41FD417-6CEC-4BCD-969C-0DD89C9604FC}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="420">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="419">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="418">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="417">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="416">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="415">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="414">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="413">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="412">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="411">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="410">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="409">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="408">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="407">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F3809D4-711B-455F-AB34-F5C694770AB4}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="406">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="405">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="404">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="403">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="402">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="401">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="400">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="399">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="398">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="397">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="396">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="395">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="394">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="393">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD18B520-28BB-4C3E-A2CC-C7F48841F42B}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="392">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="391">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="390">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="389">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="388">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="387">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="386">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="385">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="384">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="383">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="382">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="381">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="380">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="379">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10A4BC46-10EA-4048-8413-C2C90D408683}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="378">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="377">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="376">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="375">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="374">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="373">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="372">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="371">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="370">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="369">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="368">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="367">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="366">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="365">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A8AACA7-2B1D-4D98-9804-DD73BAD1A356}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:Q4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="364">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="363">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="362">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="361">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="360">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="359">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="358">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="357">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="356">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="355">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="354">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="353">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="352">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="351">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10905,109 +10663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1476CF-F69C-48C4-ABC8-D91E2CBA9910}">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="O2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3552A61A-D9BC-4B67-A1E2-306B8E0E6C6A}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11107,11 +10766,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3552A61A-D9BC-4B67-A1E2-306B8E0E6C6A}">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="O2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D5579C-8061-410B-8B39-7E5F68DE7366}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -11216,7 +10980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5953CBB3-3DFF-47E2-A89A-B4D8B2A54E6B}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -11321,7 +11085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EAAF95-C52E-486B-B9B1-59D8B7636C5F}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -11426,7 +11190,322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABA1122-4E64-4939-8E81-13564CB18155}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="O2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C6E994-36B3-4DCF-916D-73AC0C2C4B7F}">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="O2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E981488-0E48-48C7-9088-155D340F26C3}">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="O2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF40525-032B-4C67-9F94-440671492E96}">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -11527,326 +11606,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C6E994-36B3-4DCF-916D-73AC0C2C4B7F}">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="O2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E981488-0E48-48C7-9088-155D340F26C3}">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="O2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF40525-032B-4C67-9F94-440671492E96}">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="O2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BD78B2-E515-4FE6-BD9C-2BF08CD0EC29}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -11951,7 +11715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A571CC-45E2-4FC5-917F-03FB9B85FDD2}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -12056,7 +11820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AA8055-0604-488E-BAA5-DD362BE29D48}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -12161,7 +11925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670C0B1D-ECBC-4EB1-9CBF-BD6C40ED88F2}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -12266,7 +12030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC987A2-D121-40E7-82AD-0DB285333140}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -12371,8 +12135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E608556E-D942-401E-8453-473BE52EB180}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13217,7 +12981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDD9841-6781-4037-9112-DC429F2031AF}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -13532,8 +13296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2553D4-8D50-419C-9181-1E5731BE57DC}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13637,8 +13401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF912E9D-55E9-4CB0-BF60-8B71F4D26BCC}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13742,8 +13506,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339C6B54-4C0B-4D6E-8B58-C24940C2D550}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+      <pivotSelection pane="bottomRight" activeCol="16" previousCol="16" click="1" r:id="rId1">
+        <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13847,8 +13614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84815CBB-7AE6-4B5C-89E1-5DF43F5B4B12}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13952,8 +13719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06DD5DE-9DB0-47BF-8B3C-A312E3D02A82}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14057,8 +13824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981802B7-E6BB-492D-A9E1-0A7188175E6B}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
